--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikhalid/Desktop/Cycls/TechProjects/ProxyServer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7878C7E7-5394-A64D-8A45-3B31403EEEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBEFBEE-3C8A-B343-8751-91FA00AC9B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{3F4B0203-4313-4E49-94E8-4362462CEFD5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Cars" sheetId="2" r:id="rId2"/>
+    <sheet name="drivers" sheetId="1" r:id="rId1"/>
+    <sheet name="cars" sheetId="2" r:id="rId2"/>
     <sheet name="Transactions" sheetId="3" r:id="rId3"/>
     <sheet name="Policies" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,14 +59,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>apple_id</t>
-  </si>
-  <si>
     <t>full_name</t>
   </si>
   <si>
@@ -82,21 +79,12 @@
     <t>email</t>
   </si>
   <si>
-    <t>government_id</t>
-  </si>
-  <si>
     <t>national_address</t>
   </si>
   <si>
     <t>phone_NO</t>
   </si>
   <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>model</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>total_SAR</t>
   </si>
   <si>
-    <t xml:space="preserve">None </t>
-  </si>
-  <si>
     <t>khalid Alrasheed</t>
   </si>
   <si>
@@ -238,9 +223,6 @@
     <t>fatemah@gmail.com</t>
   </si>
   <si>
-    <t>zainab@gmail</t>
-  </si>
-  <si>
     <t>1015 abu ubidah street</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t xml:space="preserve">4551 street </t>
   </si>
   <si>
-    <t>owner_id</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -322,27 +301,6 @@
     <t>UX</t>
   </si>
   <si>
-    <t>ABC1234 ابت١٢٣٤</t>
-  </si>
-  <si>
-    <t>ABC1234 ابت١٢٣٥</t>
-  </si>
-  <si>
-    <t>ABC1234 ابت١٢٣٦</t>
-  </si>
-  <si>
-    <t>ABC1234 ابت١٢٣٧</t>
-  </si>
-  <si>
-    <t>ABC1234 ابت١٢٣٨</t>
-  </si>
-  <si>
-    <t>ABC1234 ابت١٢٣٩</t>
-  </si>
-  <si>
-    <t>ABC1234 ابت١٢٤٠</t>
-  </si>
-  <si>
     <t>RAJHI</t>
   </si>
   <si>
@@ -362,6 +320,90 @@
   </si>
   <si>
     <t>comprehensive</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>khalid</t>
+  </si>
+  <si>
+    <t>Alrasheed</t>
+  </si>
+  <si>
+    <t>mohmmed</t>
+  </si>
+  <si>
+    <t>alogayyil</t>
+  </si>
+  <si>
+    <t>saleh</t>
+  </si>
+  <si>
+    <t>alsuliman</t>
+  </si>
+  <si>
+    <t>faisal</t>
+  </si>
+  <si>
+    <t>Mansour</t>
+  </si>
+  <si>
+    <t>alrujaiy</t>
+  </si>
+  <si>
+    <t>ghadah</t>
+  </si>
+  <si>
+    <t>alothman</t>
+  </si>
+  <si>
+    <t>salwa</t>
+  </si>
+  <si>
+    <t>alsaleh</t>
+  </si>
+  <si>
+    <t>muna</t>
+  </si>
+  <si>
+    <t>almarzogy</t>
+  </si>
+  <si>
+    <t>fatemah</t>
+  </si>
+  <si>
+    <t>alsalamh</t>
+  </si>
+  <si>
+    <t>zainab</t>
+  </si>
+  <si>
+    <t>zainab@gmail.com</t>
+  </si>
+  <si>
+    <t>ABC1234</t>
+  </si>
+  <si>
+    <t>ABC1235</t>
+  </si>
+  <si>
+    <t>ABC1236</t>
+  </si>
+  <si>
+    <t>ABC1237</t>
+  </si>
+  <si>
+    <t>ABC1238</t>
+  </si>
+  <si>
+    <t>ABC1239</t>
+  </si>
+  <si>
+    <t>ABC1240</t>
   </si>
 </sst>
 </file>
@@ -370,7 +412,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="dd/mm/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -430,14 +472,20 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -757,17 +805,16 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -778,28 +825,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -807,28 +854,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <v>34254</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
-        <v>34254</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>1078918347</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
       </c>
       <c r="J2">
         <v>558479979</v>
@@ -839,28 +886,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <v>33982</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="2">
-        <v>33982</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3">
-        <v>1064878413</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
       </c>
       <c r="J3">
         <v>541231564</v>
@@ -871,28 +918,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2">
         <v>35126</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4">
-        <v>1095213214</v>
+      <c r="H4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J4">
         <v>562318790</v>
@@ -903,28 +950,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2">
         <v>25774</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5">
-        <v>1051215814</v>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>501148450</v>
@@ -935,28 +982,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2">
         <v>34654</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6">
-        <v>1098546201</v>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>551210346</v>
@@ -967,34 +1014,33 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
+        <f ca="1">DATE(RANDBETWEEN(1965, 2000),  RANDBETWEEN(1, 12), RANDBETWEEN(1, 29))</f>
+        <v>24065</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2">
-        <f ca="1">DATE(RANDBETWEEN(1965, 2000),  RANDBETWEEN(1, 12), RANDBETWEEN(1, 29))</f>
-        <v>33875</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7">
-        <f ca="1">1000000000 + RANDBETWEEN(1, 99999999)</f>
-        <v>1017901079</v>
-      </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <f ca="1">500000000 + RANDBETWEEN(1, 99999999)</f>
-        <v>535438950</v>
+        <v>544386541</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1002,34 +1048,33 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8:G11" ca="1" si="0">DATE(RANDBETWEEN(1965, 2000),  RANDBETWEEN(1, 12), RANDBETWEEN(1, 29))</f>
+        <v>35057</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ref="F8:F11" ca="1" si="0">DATE(RANDBETWEEN(1965, 2000),  RANDBETWEEN(1, 12), RANDBETWEEN(1, 29))</f>
-        <v>36067</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H11" ca="1" si="1">1000000000 + RANDBETWEEN(1, 99999999)</f>
-        <v>1068834894</v>
-      </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J11" ca="1" si="2">500000000 + RANDBETWEEN(1, 99999999)</f>
-        <v>535776379</v>
+        <f t="shared" ref="J8:J11" ca="1" si="1">500000000 + RANDBETWEEN(1, 99999999)</f>
+        <v>539276498</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1037,34 +1082,33 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>35922</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>31353</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>1054025484</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="2"/>
-        <v>522880009</v>
+        <v>586913962</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1072,34 +1116,33 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>36724</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>28414</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>1017889328</v>
-      </c>
-      <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="2"/>
-        <v>542313549</v>
+        <v>546987919</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1107,48 +1150,47 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="2">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34988</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11">
+        <v>23754</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>1098758830</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="2"/>
-        <v>545459431</v>
+        <v>532532411</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{B6CE909F-846C-AF4C-B496-D23B0934A278}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{585D16D3-F7AD-0749-9B17-BE12B7ECB0FE}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{7F42015C-AB34-154C-96B5-2D30AB3EE2DC}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{209669DF-BF7D-3147-81F1-E52E505A2D76}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{CA8A0B2A-3785-D240-BC42-89ADAB2E6059}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{4738C24C-DB50-4B47-9F5E-D88797FBAD62}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{B72240FF-339A-AB4F-85F6-B2784CE15161}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{FB6CD66F-A887-CF4E-BA25-95D6EA59F288}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{8E091B17-73CD-A54E-B3F9-3A4ADCF5A3A9}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{D6849335-C279-9A43-BEB6-D0B8559C12F3}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{B6CE909F-846C-AF4C-B496-D23B0934A278}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{585D16D3-F7AD-0749-9B17-BE12B7ECB0FE}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{7F42015C-AB34-154C-96B5-2D30AB3EE2DC}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{209669DF-BF7D-3147-81F1-E52E505A2D76}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{CA8A0B2A-3785-D240-BC42-89ADAB2E6059}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{4738C24C-DB50-4B47-9F5E-D88797FBAD62}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{B72240FF-339A-AB4F-85F6-B2784CE15161}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{FB6CD66F-A887-CF4E-BA25-95D6EA59F288}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{8E091B17-73CD-A54E-B3F9-3A4ADCF5A3A9}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{D6849335-C279-9A43-BEB6-D0B8559C12F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1156,314 +1198,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4B30FB-3AA0-C444-BEA0-6A6A5FF4E93C}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8</v>
+      <c r="B2" t="s">
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2">
-        <v>2020</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" cm="1">
-        <f t="array" aca="1" ref="G2:G8" ca="1">_xlfn.RANDARRAY(7,1, 1000000000, 1999999999, TRUE)</f>
-        <v>1574249268</v>
-      </c>
-      <c r="H2" cm="1">
-        <f t="array" aca="1" ref="H2:H8" ca="1">_xlfn.RANDARRAY(7,1, 5000000000,10000000000, TRUE)</f>
-        <v>6720118959</v>
+        <v>69</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" aca="1" ref="E2:E8" ca="1">_xlfn.RANDARRAY(7,1, 1000000000, 1999999999, TRUE)</f>
+        <v>1941932347</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" aca="1" ref="F2:F8" ca="1">_xlfn.RANDARRAY(7,1, 5000000000,10000000000, TRUE)</f>
+        <v>7608605504</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>9</v>
+      <c r="B3" t="s">
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>2021</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3">
         <f ca="1"/>
-        <v>1829853685</v>
-      </c>
-      <c r="H3">
+        <v>1091123633</v>
+      </c>
+      <c r="F3">
         <f ca="1"/>
-        <v>7873083362</v>
+        <v>7547688193</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2019</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4">
         <f ca="1"/>
-        <v>1987891391</v>
-      </c>
-      <c r="H4">
+        <v>1788682273</v>
+      </c>
+      <c r="F4">
         <f ca="1"/>
-        <v>9082311300</v>
+        <v>7348450243</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>2022</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5">
         <f ca="1"/>
-        <v>1948384536</v>
-      </c>
-      <c r="H5">
+        <v>1869897360</v>
+      </c>
+      <c r="F5">
         <f ca="1"/>
-        <v>6339533900</v>
+        <v>9073533377</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2019</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>2019</v>
-      </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6">
         <f ca="1"/>
-        <v>1162184046</v>
-      </c>
-      <c r="H6">
+        <v>1774447409</v>
+      </c>
+      <c r="F6">
         <f ca="1"/>
-        <v>6794391032</v>
+        <v>5881040564</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>7</v>
+      <c r="B7" t="s">
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E7">
-        <v>2018</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7">
         <f ca="1"/>
-        <v>1465837453</v>
-      </c>
-      <c r="H7">
+        <v>1417418236</v>
+      </c>
+      <c r="F7">
         <f ca="1"/>
-        <v>9686372686</v>
+        <v>9991985904</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>79</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>2020</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>2020</v>
-      </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8">
         <f ca="1"/>
-        <v>1516834026</v>
-      </c>
-      <c r="H8">
+        <v>1880199469</v>
+      </c>
+      <c r="F8">
         <f ca="1"/>
-        <v>9302537319</v>
+        <v>6807985906</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1491,22 +1485,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,26 +1509,26 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(10000000, 99999999)</f>
-        <v>89831680</v>
+        <v>38136092</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">DATE(2021, 11, RANDBETWEEN(1, 29)) + TIME(RANDBETWEEN(0,23), RANDBETWEEN(0,59), RANDBETWEEN(0,59))</f>
-        <v>44506.52140046296</v>
+        <v>44508.844097222223</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(450, 950)</f>
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="F2">
         <f ca="1">0.15*E2</f>
-        <v>93.3</v>
+        <v>100.95</v>
       </c>
       <c r="G2">
         <f ca="1">F2+E2</f>
-        <v>715.3</v>
+        <v>773.95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1543,26 +1537,26 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B8" ca="1" si="0">RANDBETWEEN(10000000, 99999999)</f>
-        <v>48861084</v>
+        <v>80277549</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D8" ca="1" si="1">DATE(2021, 11, RANDBETWEEN(1, 29)) + TIME(RANDBETWEEN(0,23), RANDBETWEEN(0,59), RANDBETWEEN(0,59))</f>
-        <v>44514.741064814814</v>
+        <v>44523.579039351855</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E7" ca="1" si="2">RANDBETWEEN(450, 950)</f>
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F8" ca="1" si="3">0.15*E3</f>
-        <v>115.64999999999999</v>
+        <v>117</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" ca="1" si="4">F3+E3</f>
-        <v>886.65</v>
+        <v>897</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1571,26 +1565,26 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>47624185</v>
+        <v>50811337</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44513.390347222223</v>
+        <v>44508.923125000001</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>81.75</v>
+        <v>90.3</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="4"/>
-        <v>626.75</v>
+        <v>692.3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,26 +1593,26 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>26495742</v>
+        <v>26884116</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44511.475798611114</v>
+        <v>44519.181840277779</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>809</v>
+        <v>736</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="3"/>
-        <v>121.35</v>
+        <v>110.39999999999999</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>930.35</v>
+        <v>846.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1627,26 +1621,26 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>71745284</v>
+        <v>73939102</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44515.851469907408</v>
+        <v>44517.67869212963</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>528</v>
+        <v>842</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="3"/>
-        <v>79.2</v>
+        <v>126.3</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="4"/>
-        <v>607.20000000000005</v>
+        <v>968.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1655,26 +1649,26 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>39924052</v>
+        <v>93529617</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44503.736493055556</v>
+        <v>44509.976655092592</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>594</v>
+        <v>827</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="3"/>
-        <v>89.1</v>
+        <v>124.05</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="4"/>
-        <v>683.1</v>
+        <v>951.05</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1683,14 +1677,14 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>99826817</v>
+        <v>25032536</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>44504.233298611114</v>
+        <v>44524.438240740739</v>
       </c>
       <c r="E8">
         <v>6215</v>
@@ -1729,22 +1723,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1755,22 +1749,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">Transactions!D2 + TIME(RANDBETWEEN(0,3), RANDBETWEEN(0,59),RANDBETWEEN(0,59))</f>
-        <v>44506.610706018517</v>
+        <v>44508.904456018521</v>
       </c>
       <c r="E2" s="6">
         <f ca="1">D2 + TIME(23,59,59)</f>
-        <v>44507.61069444444</v>
+        <v>44509.904444444444</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100000000, 999999999)</f>
-        <v>576907507</v>
+        <v>347932652</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1781,19 +1775,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">Transactions!D3 + TIME(RANDBETWEEN(0,3), RANDBETWEEN(0,59),RANDBETWEEN(0,59))</f>
-        <v>44514.772847222222</v>
+        <v>44523.69027777778</v>
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3:E8" ca="1" si="0">D3 + TIME(24,0,0)</f>
-        <v>44514.772847222222</v>
+        <v>44523.69027777778</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F8" ca="1" si="1">RANDBETWEEN(100000000, 999999999)</f>
-        <v>124580519</v>
+        <v>858530244</v>
       </c>
       <c r="G3" t="str">
         <f>G2</f>
@@ -1808,19 +1802,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D4" s="6">
         <f ca="1">Transactions!D4 + TIME(RANDBETWEEN(0,3), RANDBETWEEN(0,59),RANDBETWEEN(0,59))</f>
-        <v>44513.405034722222</v>
+        <v>44508.942789351851</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>44513.405034722222</v>
+        <v>44508.942789351851</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>727874558</v>
+        <v>730809699</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G7" si="2">G3</f>
@@ -1835,19 +1829,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">Transactions!D5 + TIME(RANDBETWEEN(0,3), RANDBETWEEN(0,59),RANDBETWEEN(0,59))</f>
-        <v>44511.519247685188</v>
+        <v>44519.196574074078</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>44511.519247685188</v>
+        <v>44519.196574074078</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>776261254</v>
+        <v>141542202</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="2"/>
@@ -1862,19 +1856,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6">
         <f ca="1">Transactions!D6 + TIME(RANDBETWEEN(0,3), RANDBETWEEN(0,59),RANDBETWEEN(0,59))</f>
-        <v>44515.892997685187</v>
+        <v>44517.768171296295</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>44515.892997685187</v>
+        <v>44517.768171296295</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>650510193</v>
+        <v>835863247</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="2"/>
@@ -1889,19 +1883,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6">
         <f ca="1">Transactions!D7 + TIME(RANDBETWEEN(0,3), RANDBETWEEN(0,59),RANDBETWEEN(0,59))</f>
-        <v>44503.743495370371</v>
+        <v>44510.119108796294</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>44503.743495370371</v>
+        <v>44510.119108796294</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>235658147</v>
+        <v>608381790</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="2"/>
@@ -1916,22 +1910,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D8" s="6">
         <f ca="1">Transactions!D8 + TIME(RANDBETWEEN(0,3), RANDBETWEEN(0,59),RANDBETWEEN(0,59))</f>
-        <v>44504.304259259261</v>
+        <v>44524.588495370372</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>44504.304259259261</v>
+        <v>44524.588495370372</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>496276381</v>
+        <v>445893771</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
